--- a/documentation/Leon/3_1_Modele_Journal_Leon.xlsx
+++ b/documentation/Leon/3_1_Modele_Journal_Leon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/leon_fejzaj_studentfr_ch/Documents/011.EMF (EXERCICE)/3eme annee (2025-2026)/306/306-G3-SpeleoThink/documentation/Leon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2273D9B3-D5C5-41D3-AEA4-F686F14FE1BA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E02776-C311-407F-95D9-B844581D55A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Mise en place du notion commun au projet</t>
+  </si>
+  <si>
+    <t>Réalisation du planning</t>
+  </si>
+  <si>
+    <t>J'ai bien travailler aujourd'hui, pas de problème majeur recontrer</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1189,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:C9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1267,9 +1273,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -1287,12 +1297,14 @@
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
     </row>
@@ -1794,7 +1806,7 @@
       </c>
       <c r="D83" s="12">
         <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
